--- a/src/main/resources/leetcode-problems-guide.xlsx
+++ b/src/main/resources/leetcode-problems-guide.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Notes\Preparations\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Practices\leetcode-top-interview-150\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
   <si>
     <t xml:space="preserve">Difficulty </t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Ransom Note</t>
-  </si>
-  <si>
-    <t>Max Profit</t>
-  </si>
-  <si>
-    <t>Valid Anagram</t>
   </si>
   <si>
     <t>Strings</t>
@@ -89,9 +83,6 @@
 5. Put char from pattern as key, index as value and array item and index as value, make sure the put method return types are matching</t>
   </si>
   <si>
-    <t>Buy value should be minimum and sell value should be maximum</t>
-  </si>
-  <si>
     <t>1. Declare maxProfit = 0 and buyingPrice as MAX_INTEGER value
 2. Loop over the prices array
 3. buyingPrice should be min value of buyingPrice and current index price, maxProfit value should be max value of maxProfit, current index price - buyingPrice</t>
@@ -148,13 +139,200 @@
 1. Intialize count = 1 and candidate as first element in the array
 2. Loop over array from i = 1, if count = 0, then assign the candidate as index position item. If candidate is same as index item increment else decrement
 3. Candidate will contains the item which repeated more thann/2 times</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>Roman to Integer</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Given a roman string number, convert it into integer number</t>
+  </si>
+  <si>
+    <t>Length of Last Word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a string sentense with multiple words, find the length of the last word </t>
+  </si>
+  <si>
+    <t>1. StripTrailing of the string to remove the end whitespaces
+2. Substract lastIndex of whitespace by excluding whitespace length from total String length</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Given a string array, find out the longest commpon prefix from all the elements of the array</t>
+  </si>
+  <si>
+    <t>1. Sort the given array
+2. Get the first element and last element from the array
+3. Initialize a counter and perform a while loop on first element length
+4. Break the loop when the elements are not matching
+5. Return the substring of first elelement from 0 to counter</t>
+  </si>
+  <si>
+    <t>Find the Index of the First Occurrence in a String</t>
+  </si>
+  <si>
+    <t>needle, haystack problem</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Given a string, find out whether it is palindrom or not consiering only alphabets and numerical characters</t>
+  </si>
+  <si>
+    <t>Buy value should be minimum and sell value should be maximum
+Max profit problem</t>
+  </si>
+  <si>
+    <t>1. Convert String to lowercase
+2. Create a startIndex and endIndex variables
+3. Perform a while loop operation with startIndex &lt;= endIndex
+4. If the respective character not alphanumeric, continue loop with incrementing/decrimenting the value
+5. If alphanumeric, then compare the chars and if they are equal increment startIndex and decrement endIndex and continue</t>
+  </si>
+  <si>
+    <t>We can also replace all non alphanumeric characters with empty string</t>
+  </si>
+  <si>
+    <t>Is Subsequence</t>
+  </si>
+  <si>
+    <t>Given two Strings s and t, find out whether s can be created be removing zero or few characterss in t without disturbing them</t>
+  </si>
+  <si>
+    <t>1. Intialize two variables with default value as 0
+2. Create a while loop checking index less than the respective lengths
+3. If the char at the indexes are matching, go to next char in s, but increment t index for every iteration
+4. Length of s should match it respective index for it to be subsequences</t>
+  </si>
+  <si>
+    <t>Given two strings ransom note and magazine, find out whether we can create ransom note from magazine using one character only once</t>
+  </si>
+  <si>
+    <t>1. Create an int array with size 26 to store the number of times a character is repated
+2. Loop over magazine and increment character count
+3. Loop over ransom note and decrement the character count
+4. If at any time count &lt;= 0, return false</t>
+  </si>
+  <si>
+    <t>This problem can be fixed using HashMap
+1. Group the characters by the number of times they are repeated
+2. Loop over ransom note and decrement the count of key
+3. if any count is &lt;=0, then return false</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Given a string with different parantheses, identify whether each open parantheses has corresponding  closed parantheses and are in right order</t>
+  </si>
+  <si>
+    <t>219. Contains Duplicate II</t>
+  </si>
+  <si>
+    <t>Numbers</t>
+  </si>
+  <si>
+    <t>Given an array of integers, and a number K, find if there is any distinctive number with its index difference less than or equals to K</t>
+  </si>
+  <si>
+    <t>290. Word Pattern</t>
+  </si>
+  <si>
+    <t>Given a letter pattern lp and a word pattern wp, each letter in lp maps to exactly one unique word in wp and Each unique word in wp maps to exactly one letter in lp</t>
+  </si>
+  <si>
+    <t>1. Convert the pattern string to char array
+2. Split word pattern by empty space
+3. Create an HashMap and insert into it only when both key and value not existsin map
+4. If one of them exists, check the respective key or value match accordingly</t>
+  </si>
+  <si>
+    <t>228. Summary Ranges</t>
+  </si>
+  <si>
+    <t>Given an array of sorted integers,  find the smallest sorted list of ranges possible</t>
+  </si>
+  <si>
+    <t>1. Take the first element from the array as start
+2. Loop over the array from second element and find whether current element is increment of previous element. If yes, proceed else add it to the result list
+3. To handle last element, make sure the loop runs size of the array and array index is handled properly</t>
+  </si>
+  <si>
+    <t>One more simple approach is running nested loop and increment the array index as needed</t>
+  </si>
+  <si>
+    <t>202. Happy Number</t>
+  </si>
+  <si>
+    <t>Find out whether given number is happy or not. A number is happy if the sum of square of all digits until it is single digit  is 1</t>
+  </si>
+  <si>
+    <t>The given operation will either return 1 or at some point it goes into a cycle and repeats the same,  (5 -&gt; 25 -&gt; 29 -&gt; 145 -&gt; 42 -&gt; 20 -&gt; 4 -&gt; 16 -&gt; 37 -&gt; 58 -&gt; 89 -&gt; 145)
+Use Floyd's Tortoise and Hare alogorithm</t>
+  </si>
+  <si>
+    <t>Solution without algorithm:
+1. Create a set to hold the hisotry of sum
+2. Make sure to add the sum to the hisotry during the start of every iteration
+3. Find the sum of the squares of individual numbers and repeat it till either the sum is 1 or sum already exists in the hisotry</t>
+  </si>
+  <si>
+    <t>141. Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Find out whether the given linked list has a cycle in it and no end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Use Floyd's Tortoise and Hare alogorithm</t>
+  </si>
+  <si>
+    <t>206. Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Given a linked list, reverse it</t>
+  </si>
+  <si>
+    <t>Iterative approach is best compare to recursive approach due to space complexity</t>
+  </si>
+  <si>
+    <t>1. Create a current node pointing to head and prev node pointing to null
+2. Loop over current node
+3. Create a temp variable to hold the current node
+4. Perform assignments to first hold current node next to previous node, previous node to current node and current node to temp node.
+5. Repeat until current node reaches null</t>
+  </si>
+  <si>
+    <t>203. Remove Linked List Elements</t>
+  </si>
+  <si>
+    <t>Given a linked list and a number, remove all the node occurences of the number from the list</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uIcClozwlxc&amp;ab_channel=NikhilLohia
+https://www.youtube.com/watch?v=JI71sxtHTng&amp;ab_channel=NeetCode</t>
+  </si>
+  <si>
+    <t>806. Number of Lines To Write String</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +359,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -235,11 +421,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -259,9 +446,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -540,17 +734,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.77734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="3" customWidth="1"/>
     <col min="3" max="3" width="14" style="3" customWidth="1"/>
     <col min="4" max="4" width="32.5546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="62.44140625" style="3" customWidth="1"/>
@@ -569,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -583,16 +777,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -601,16 +795,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -619,35 +813,35 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -655,70 +849,70 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -726,64 +920,125 @@
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
+      <c r="B10" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+    <row r="13" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -810,74 +1065,162 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+    <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+    <row r="21" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+    <row r="22" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+    <row r="23" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+    <row r="26" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="F27" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1898,8 +2241,74 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
     </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="5"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="5"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="5"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="5"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="5"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="5"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" display="https://leetcode.com/problems/find-the-index-of-the-first-occurrence-in-a-string/"/>
+    <hyperlink ref="B11" r:id="rId2" display="https://leetcode.com/problems/valid-palindrome/"/>
+    <hyperlink ref="B12" r:id="rId3" display="https://leetcode.com/problems/is-subsequence/"/>
+    <hyperlink ref="B13" r:id="rId4" display="https://leetcode.com/problems/ransom-note/"/>
+    <hyperlink ref="B14" r:id="rId5" display="https://leetcode.com/problems/isomorphic-strings/"/>
+    <hyperlink ref="B15" r:id="rId6" display="https://leetcode.com/problems/word-pattern/"/>
+    <hyperlink ref="B20" r:id="rId7" display="https://leetcode.com/problems/valid-parentheses/"/>
+    <hyperlink ref="B21" r:id="rId8" display="https://leetcode.com/problems/contains-duplicate-ii/"/>
+    <hyperlink ref="B22" r:id="rId9" display="https://leetcode.com/problems/word-pattern/"/>
+    <hyperlink ref="B23" r:id="rId10" display="https://leetcode.com/problems/summary-ranges/"/>
+    <hyperlink ref="B24" r:id="rId11" display="https://leetcode.com/problems/happy-number/"/>
+    <hyperlink ref="B25" r:id="rId12" display="https://leetcode.com/problems/linked-list-cycle/"/>
+    <hyperlink ref="B26" r:id="rId13" display="https://leetcode.com/problems/reverse-linked-list/"/>
+    <hyperlink ref="B27" r:id="rId14" display="https://leetcode.com/problems/remove-linked-list-elements/"/>
+    <hyperlink ref="F27" r:id="rId15" display="https://www.youtube.com/watch?v=uIcClozwlxc&amp;ab_channel=NikhilLohia"/>
+    <hyperlink ref="B28" r:id="rId16" display="https://leetcode.com/problems/number-of-lines-to-write-string/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/src/main/resources/leetcode-problems-guide.xlsx
+++ b/src/main/resources/leetcode-problems-guide.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Top Interview 150" sheetId="1" r:id="rId1"/>
+    <sheet name="Easy" sheetId="1" r:id="rId1"/>
+    <sheet name="Medium" sheetId="3" r:id="rId2"/>
+    <sheet name="Hard" sheetId="4" r:id="rId3"/>
+    <sheet name="Notes" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
-  <si>
-    <t xml:space="preserve">Difficulty </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t>Title</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>Easy</t>
   </si>
   <si>
     <t>Ransom Note</t>
@@ -326,6 +323,42 @@
   </si>
   <si>
     <t>806. Number of Lines To Write String</t>
+  </si>
+  <si>
+    <t>1. Create a dummy result node next pointing to current head
+2. Create a prevNode with value as result node so that the result node not lost
+3. When head val matches with the given number, skip current node by assigning prev node next to head next else assing prevNode to head
+4. Continue the above process untill head becomes null</t>
+  </si>
+  <si>
+    <t>242. Valid Anagram</t>
+  </si>
+  <si>
+    <t>Given two strings, find if one is anagram to other</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Anagram</t>
+  </si>
+  <si>
+    <t>If one word can be formed from another word by interchanging the letter positions in the word</t>
+  </si>
+  <si>
+    <t>A different solution:
+1. Create a Map with key as Character and value as number of times the char repeated
+2. Loop over the other string and decrement the count or remove the Character based on existence of the char in the Map
+3. They are anagrams if the Map is empty</t>
+  </si>
+  <si>
+    <t>1. Create an alphabet array of type int with size 26
+2. Loop over with the length of the string (Both the string lengths should be same)
+3. Increment the value by +1, for one string char and decrement the value by -1 for other string char
+4. If the alphabet array contains all the values as zero, then they are anagrams</t>
   </si>
 </sst>
 </file>
@@ -348,9 +381,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -358,21 +391,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,13 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,33 +451,31 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -734,1581 +759,1456 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F161"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="40.88671875" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="27.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="62.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
+    </row>
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="C21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="D23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="7" t="s">
+      <c r="D27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="5"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="5"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="5"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="5"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="5"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="5"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="5"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="5"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="5"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="5"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="5"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="5"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="5"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="5"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="5"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="5"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="5"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="5"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="5"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="5"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="5"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="5"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="5"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="5"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="5"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="5"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="5"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="5"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="5"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="5"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="5"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="5"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="5"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="5"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="5"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="5"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="5"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="5"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="5"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="5"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="5"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="5"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="5"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="5"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="5"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="5"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="5"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="5"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="5"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="5"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="5"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="5"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="5"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="5"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="5"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="5"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="5"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="5"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="5"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="5"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="5"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="https://leetcode.com/problems/find-the-index-of-the-first-occurrence-in-a-string/"/>
-    <hyperlink ref="B11" r:id="rId2" display="https://leetcode.com/problems/valid-palindrome/"/>
-    <hyperlink ref="B12" r:id="rId3" display="https://leetcode.com/problems/is-subsequence/"/>
-    <hyperlink ref="B13" r:id="rId4" display="https://leetcode.com/problems/ransom-note/"/>
-    <hyperlink ref="B14" r:id="rId5" display="https://leetcode.com/problems/isomorphic-strings/"/>
-    <hyperlink ref="B15" r:id="rId6" display="https://leetcode.com/problems/word-pattern/"/>
-    <hyperlink ref="B20" r:id="rId7" display="https://leetcode.com/problems/valid-parentheses/"/>
-    <hyperlink ref="B21" r:id="rId8" display="https://leetcode.com/problems/contains-duplicate-ii/"/>
-    <hyperlink ref="B22" r:id="rId9" display="https://leetcode.com/problems/word-pattern/"/>
-    <hyperlink ref="B23" r:id="rId10" display="https://leetcode.com/problems/summary-ranges/"/>
-    <hyperlink ref="B24" r:id="rId11" display="https://leetcode.com/problems/happy-number/"/>
-    <hyperlink ref="B25" r:id="rId12" display="https://leetcode.com/problems/linked-list-cycle/"/>
-    <hyperlink ref="B26" r:id="rId13" display="https://leetcode.com/problems/reverse-linked-list/"/>
-    <hyperlink ref="B27" r:id="rId14" display="https://leetcode.com/problems/remove-linked-list-elements/"/>
-    <hyperlink ref="F27" r:id="rId15" display="https://www.youtube.com/watch?v=uIcClozwlxc&amp;ab_channel=NikhilLohia"/>
-    <hyperlink ref="B28" r:id="rId16" display="https://leetcode.com/problems/number-of-lines-to-write-string/"/>
+    <hyperlink ref="A10" r:id="rId1" display="https://leetcode.com/problems/find-the-index-of-the-first-occurrence-in-a-string/"/>
+    <hyperlink ref="A11" r:id="rId2" display="https://leetcode.com/problems/valid-palindrome/"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://leetcode.com/problems/is-subsequence/"/>
+    <hyperlink ref="A13" r:id="rId4" display="https://leetcode.com/problems/ransom-note/"/>
+    <hyperlink ref="A14" r:id="rId5" display="https://leetcode.com/problems/isomorphic-strings/"/>
+    <hyperlink ref="A15" r:id="rId6" display="https://leetcode.com/problems/word-pattern/"/>
+    <hyperlink ref="A20" r:id="rId7" display="https://leetcode.com/problems/valid-parentheses/"/>
+    <hyperlink ref="A21" r:id="rId8" display="https://leetcode.com/problems/contains-duplicate-ii/"/>
+    <hyperlink ref="A22" r:id="rId9" display="https://leetcode.com/problems/word-pattern/"/>
+    <hyperlink ref="A23" r:id="rId10" display="https://leetcode.com/problems/summary-ranges/"/>
+    <hyperlink ref="A24" r:id="rId11" display="https://leetcode.com/problems/happy-number/"/>
+    <hyperlink ref="A25" r:id="rId12" display="https://leetcode.com/problems/linked-list-cycle/"/>
+    <hyperlink ref="A26" r:id="rId13" display="https://leetcode.com/problems/reverse-linked-list/"/>
+    <hyperlink ref="A27" r:id="rId14" display="https://leetcode.com/problems/remove-linked-list-elements/"/>
+    <hyperlink ref="E27" r:id="rId15" display="https://www.youtube.com/watch?v=uIcClozwlxc&amp;ab_channel=NikhilLohia"/>
+    <hyperlink ref="A28" r:id="rId16" display="https://leetcode.com/problems/number-of-lines-to-write-string/"/>
+    <hyperlink ref="A29" r:id="rId17" display="https://leetcode.com/problems/valid-anagram/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="88.42578125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>